--- a/다이어트 양식.xlsx
+++ b/다이어트 양식.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="123">
   <si>
     <t>테이블명</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -460,6 +460,38 @@
   </si>
   <si>
     <t>식품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> fd_once</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_capa</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_cal</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_fat</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_carbo</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_sugar</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>식품명</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>mf_루믇</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -468,7 +500,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -817,18 +849,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -838,29 +858,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,8 +900,38 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1214,104 +1246,104 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24">
         <v>44315</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>40</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1330,13 +1362,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>41</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1352,286 +1384,286 @@
         <v>101</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9" t="s">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="23">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9" t="s">
+      <c r="D12" s="5"/>
+      <c r="E12" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="G13" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C14" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9" t="s">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="F14" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9" t="s">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="F15" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9" t="s">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9" t="s">
+      <c r="D17" s="5"/>
+      <c r="E17" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -1652,17 +1684,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="14.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9" style="28"/>
-    <col min="10" max="10" width="13.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="28"/>
+    <col min="1" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="14.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="13.625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -1673,104 +1705,104 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24">
         <v>44315</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1789,13 +1821,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1811,246 +1843,246 @@
         <v>25</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="23">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2071,17 +2103,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="14.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9" style="28"/>
-    <col min="10" max="10" width="13.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12" style="28" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="28"/>
+    <col min="1" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="14.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="13.625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2092,104 +2124,104 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24">
         <v>44315</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>44</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2208,13 +2240,13 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="22"/>
+      <c r="L6" s="12"/>
     </row>
     <row r="7" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2230,246 +2262,246 @@
         <v>25</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B8" s="23">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
-      <c r="L8" s="24"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="D10" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="23">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2489,18 +2521,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9" style="28"/>
-    <col min="3" max="3" width="14.375" style="28" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="28" customWidth="1"/>
-    <col min="5" max="5" width="12.5" style="28" customWidth="1"/>
-    <col min="6" max="6" width="13.875" style="28" customWidth="1"/>
-    <col min="7" max="7" width="10" style="28" customWidth="1"/>
-    <col min="8" max="8" width="12.25" style="28" customWidth="1"/>
-    <col min="9" max="9" width="9" style="28"/>
-    <col min="10" max="10" width="13.625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="12" style="28" customWidth="1"/>
-    <col min="12" max="12" width="13" style="28" customWidth="1"/>
-    <col min="13" max="16384" width="9" style="28"/>
+    <col min="1" max="2" width="9" style="18"/>
+    <col min="3" max="3" width="14.375" style="18" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="18" customWidth="1"/>
+    <col min="5" max="5" width="12.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="13.875" style="18" customWidth="1"/>
+    <col min="7" max="7" width="10" style="18" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="18" customWidth="1"/>
+    <col min="9" max="9" width="9" style="18"/>
+    <col min="10" max="10" width="13.625" style="18" customWidth="1"/>
+    <col min="11" max="11" width="12" style="18" customWidth="1"/>
+    <col min="12" max="12" width="13" style="18" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
@@ -2511,104 +2543,104 @@
       <c r="C2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="4" t="s">
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5">
+      <c r="I2" s="23"/>
+      <c r="J2" s="24">
         <v>44315</v>
       </c>
-      <c r="K2" s="6"/>
-      <c r="L2" s="7" t="s">
+      <c r="K2" s="25"/>
+      <c r="L2" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="11" t="s">
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="22"/>
+      <c r="G3" s="22"/>
+      <c r="H3" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="I3" s="11"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="26"/>
+      <c r="J3" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14">
+      <c r="K3" s="28"/>
+      <c r="L3" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="17"/>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="K4" s="29"/>
+      <c r="L4" s="30"/>
     </row>
     <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E5" s="19" t="s">
+      <c r="E5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="G5" s="19" t="s">
+      <c r="G5" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="19" t="s">
+      <c r="J5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="19" t="s">
+      <c r="K5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="21">
+      <c r="B6" s="11">
         <v>1</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>65</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2627,15 +2659,15 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="22" t="s">
+      <c r="L6" s="12" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="23">
+      <c r="B7" s="13">
         <v>2</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="19" t="s">
         <v>66</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -2651,240 +2683,240 @@
         <v>25</v>
       </c>
       <c r="H7" s="2"/>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="24"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="14"/>
     </row>
     <row r="8" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="23">
+      <c r="B8" s="13">
         <v>3</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>77</v>
       </c>
       <c r="G8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9" t="s">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="9" t="s">
+      <c r="J8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L8" s="24"/>
+      <c r="L8" s="14"/>
     </row>
     <row r="9" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B9" s="23">
+      <c r="B9" s="13">
         <v>4</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>79</v>
       </c>
       <c r="G9" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="24"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="14"/>
     </row>
     <row r="10" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B10" s="23">
+      <c r="B10" s="13">
         <v>5</v>
       </c>
-      <c r="C10" s="29"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="24"/>
+      <c r="C10" s="19"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="14"/>
     </row>
     <row r="11" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B11" s="23">
+      <c r="B11" s="13">
         <v>6</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
-      <c r="L11" s="24"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="14"/>
     </row>
     <row r="12" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B12" s="23">
+      <c r="B12" s="13">
         <v>7</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
-      <c r="L12" s="24"/>
+      <c r="C12" s="20"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B13" s="23">
+      <c r="B13" s="13">
         <v>8</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="24"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B14" s="23">
+      <c r="B14" s="13">
         <v>9</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="24"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B15" s="23">
+      <c r="B15" s="13">
         <v>10</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="24"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="14"/>
     </row>
     <row r="16" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B16" s="23">
+      <c r="B16" s="13">
         <v>11</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9"/>
-      <c r="K16" s="9"/>
-      <c r="L16" s="24"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="14"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B17" s="23">
+      <c r="B17" s="13">
         <v>12</v>
       </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-      <c r="J17" s="9"/>
-      <c r="K17" s="9"/>
-      <c r="L17" s="24"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B18" s="23">
+      <c r="B18" s="13">
         <v>13</v>
       </c>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-      <c r="J18" s="9"/>
-      <c r="K18" s="9"/>
-      <c r="L18" s="24"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="14"/>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.3">
-      <c r="B19" s="23">
+      <c r="B19" s="13">
         <v>14</v>
       </c>
-      <c r="C19" s="25"/>
-      <c r="D19" s="25"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="24"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="14"/>
     </row>
     <row r="20" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="23">
+      <c r="B20" s="13">
         <v>15</v>
       </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="25"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="25"/>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
+      <c r="C20" s="16"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="C4:L4"/>
     <mergeCell ref="D2:G3"/>
     <mergeCell ref="H2:I2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="C4:L4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
@@ -2899,8 +2931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B18"/>
+    <sheetView topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2926,201 +2958,201 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="19" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="19" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="20" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="19" t="s">
         <v>44</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="19" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="19" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="19" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="29" t="s">
+      <c r="C19" s="19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="20" t="s">
         <v>49</v>
       </c>
     </row>
@@ -3159,20 +3191,20 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15:F21"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11" style="28" customWidth="1"/>
-    <col min="2" max="5" width="9" style="28"/>
-    <col min="6" max="6" width="15.5" style="28" customWidth="1"/>
-    <col min="7" max="7" width="9" style="28"/>
-    <col min="8" max="8" width="15.5" style="28" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="28"/>
+    <col min="1" max="1" width="11" style="18" customWidth="1"/>
+    <col min="2" max="5" width="9" style="18"/>
+    <col min="6" max="6" width="15.5" style="18" customWidth="1"/>
+    <col min="7" max="7" width="9" style="18"/>
+    <col min="8" max="8" width="15.5" style="18" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -3186,13 +3218,13 @@
       <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="19" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="19" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
@@ -3203,13 +3235,13 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="19" t="s">
         <v>114</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="19" t="s">
         <v>113</v>
       </c>
       <c r="E3" s="2" t="s">
@@ -3220,184 +3252,184 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="19" t="s">
         <v>107</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="5" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="5" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="F7" s="5" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8" s="30" t="s">
+      <c r="A8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
+      <c r="E8" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="F8" s="9" t="s">
+      <c r="F8" s="5" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="5" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10" s="30" t="s">
+      <c r="A10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="E10" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="F10" s="5" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="F11" s="5" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="30" t="s">
+      <c r="A12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="E12" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="F12" s="5" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="B13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="F13" s="5" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="19" t="s">
         <v>45</v>
       </c>
       <c r="E15" s="2" t="s">
@@ -3408,99 +3440,99 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="F16" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="B17" s="9" t="s">
+      <c r="B17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="29" t="s">
+      <c r="A18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C18" s="29" t="s">
+      <c r="C18" s="19" t="s">
         <v>47</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="5" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9" t="s">
+      <c r="B19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="C21" s="28" t="s">
+      <c r="C21" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E21" s="28" t="s">
+      <c r="E21" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="F21" s="28" t="s">
+      <c r="F21" s="18" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="29" t="s">
+      <c r="C23" s="19" t="s">
         <v>65</v>
       </c>
       <c r="E23" s="2" t="s">
@@ -3511,13 +3543,13 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="19" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="29" t="s">
+      <c r="C24" s="19" t="s">
         <v>66</v>
       </c>
       <c r="E24" s="2" t="s">
@@ -3528,37 +3560,150 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
+      <c r="A25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="C25" s="29" t="s">
+      <c r="C25" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="F25" s="5" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+      <c r="A26" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="E26" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C27" s="19" t="s">
         <v>67</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="E27" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="F27" s="5" t="s">
         <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="F33" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
